--- a/actionPlanTracker-2024.xlsx
+++ b/actionPlanTracker-2024.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Assignments" sheetId="1" r:id="rId1"/>
+    <sheet name="Vocabulary - Patta" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Action plan</t>
   </si>
@@ -36,13 +37,31 @@
   </si>
   <si>
     <t>SaaS along with Interview Questions</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Angular Interview Questions Preparation</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Sentence</t>
+  </si>
+  <si>
+    <t>Word</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,18 +70,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,10 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,39 +396,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45332</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45332</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="89.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>45332</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45332</v>
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
